--- a/biology/Médecine/Francisco_Javier_Muñiz/Francisco_Javier_Muñiz.xlsx
+++ b/biology/Médecine/Francisco_Javier_Muñiz/Francisco_Javier_Muñiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco_Javier_Mu%C3%B1iz</t>
+          <t>Francisco_Javier_Muñiz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Javier Muñiz (Monte Grande, province de Buenos Aires, Argentine, 21 décembre 1795 - Buenos Aires, 8 avril 1871), est un médecin et homme de science argentin, qui s’illustra par ses activités médicales et ses recherches épidémiologiques, zoologiques et paléontologiques. Il est considéré comme le premier naturaliste argentin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco_Javier_Mu%C3%B1iz</t>
+          <t>Francisco_Javier_Muñiz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Jeunes années</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors des invasions de l’Argentine par les troupes anglaises, et alors qu’il n’avait que douze ans, il s’enrôla comme cadet dans le bataillon des Andalous, et combattit en 1807 pour la défense de Buenos Aires, où il fut blessé. 
 Il fit des études à l'Institut médical militaire (Instituto Médico Militar), fondé par le docteur Cosme Argerich à l’effet de former des chirurgiens pour l’armée. Il obtint le titre de médecin en 1822, alors que l’Institut faisait déjà partie de l'université de Buenos Aires, créée l’année d’auparavant, et décrochera le doctorat en 1844. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francisco_Javier_Mu%C3%B1iz</t>
+          <t>Francisco_Javier_Muñiz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>La Guerre de Cisplatine et la vaccination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu’éclata la Guerre de Cisplatine en 1826, il fut nommé médecin et chirurgien principal de l’armée, avec le grade de lieutenant-colonel. Il avait la charge durant toute la campagne d’un important service d’hôpitaux et d’ambulances, équipé de 32 chariots couverts, et eut en particulier à donner du service lors de la campagne qui culmina par la bataille d'Ituzaingó. 
 En 1828, retourné à Luján, il devint le directeur de la vaccination anti-variolique dans l’arrondissement de Luján. Il effectua cette vaccination sur un grand nombre d'habitants de son aire de compétence, sauvant ainsi la vie à des centaines de personnes. À cette époque, le vaccin devait encore se transmettre de bras à bras. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Francisco_Javier_Mu%C3%B1iz</t>
+          <t>Francisco_Javier_Muñiz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Activité comme naturaliste et paléontologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant son séjour à Chascomús en 1825, il s’occupait aussi à observer la nature et à étudier la flore et la faune locales. Reproduisant l’expérience faite dans le siècle précédent par un prêtre, qui avait recueilli des vestiges d’espèces animales éteintes sur les berges de la rivière Luján, il procéda à d’amples excavations dans cette même rivière. Ainsi récupéra-t-il en 1825 les restes d’un glyptodonte ; cependant, par manque d’expérience, il omit de publier cette découverte. Des années plus tard, Alcide d'Orbigny rencontra d’autres restes de ce mammifère éteint, et fut tenu pour celui qui l’avait découvert en premier. 
 Lorsqu’il revint à Luján en 1828, Muñiz était devenu un naturaliste expérimenté, et poursuivit durant ses loisirs ses investigations paléontologiques, extrayant des berges de la rivière une extraordinaire série de fossiles. Par ses propres moyens, Muñiz exhuma des restes de diverses espèces animales éteintes, déjà connues pour certaines, découvertes pour la première fois pour d’autres ; les étudiant avec soin et faisant des reconstitutions de ces animaux, il fut à l’origine de la science paléontologique en Argentine. Parmi ses trouvailles figurent des mastodontes, des mégathériums, des glyptodontes, des chevaux et des tigres fossiles. Ses travaux de paléontologie furent compilés par Domingo Faustino Sarmiento en 1885. 
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Francisco_Javier_Mu%C3%B1iz</t>
+          <t>Francisco_Javier_Muñiz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Dernières années</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fin 1848, après vingt années d’activité à Luján, il résolut de retourner définitivement à Buenos Aires. Il devint le médecin personnel de Rosas, qu’il eut à traiter pour une affection de la prostate, et fut nommé assesseur auprès du Tribunal de Médecine. Lors de la bataille de Caseros, il intervint comme assistant du chirurgien en chef de l’armée rosiste, le docteur Claudio Mamerto Cuenca, et fut chargé de l’acheminement du matériel médical nécessaire à soigner les blessés. 
 En 1853, il fut élu député de l’État (quasi indépendant) de Buenos Aires pour la circonscription rurale englobant Luján, et l’année suivante, sénateur provincial. À partir de 1858 jusqu’à 1862, il fut président de la faculté de médecine de l’université de Buenos Aires. Il prit une nouvelle fois du service dans l’armée comme chirurgien de l’armée de Buenos Aires dans la bataille de Cepeda de 1859, et remplit des fonctions de chirurgien en chef dans les campements argentins lors de la Guerre du Paraguay. 
